--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4593233333333333</v>
+        <v>0.5021840000000001</v>
       </c>
       <c r="H2">
-        <v>1.37797</v>
+        <v>1.506552</v>
       </c>
       <c r="I2">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="J2">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N2">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O2">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P2">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q2">
-        <v>0.76449362209</v>
+        <v>0.2117703232213333</v>
       </c>
       <c r="R2">
-        <v>6.88044259881</v>
+        <v>1.905932908992</v>
       </c>
       <c r="S2">
-        <v>0.006200565608622689</v>
+        <v>0.006706007550330438</v>
       </c>
       <c r="T2">
-        <v>0.00620056560862269</v>
+        <v>0.006706007550330437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4593233333333333</v>
+        <v>0.5021840000000001</v>
       </c>
       <c r="H3">
-        <v>1.37797</v>
+        <v>1.506552</v>
       </c>
       <c r="I3">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="J3">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.313874</v>
       </c>
       <c r="O3">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P3">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q3">
-        <v>0.20116432842</v>
+        <v>0.219935500272</v>
       </c>
       <c r="R3">
-        <v>1.81047895578</v>
+        <v>1.979419502448</v>
       </c>
       <c r="S3">
-        <v>0.001631580147225727</v>
+        <v>0.00696456945890498</v>
       </c>
       <c r="T3">
-        <v>0.001631580147225728</v>
+        <v>0.006964569458904979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4593233333333333</v>
+        <v>0.5021840000000001</v>
       </c>
       <c r="H4">
-        <v>1.37797</v>
+        <v>1.506552</v>
       </c>
       <c r="I4">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="J4">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N4">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O4">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P4">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q4">
-        <v>0.2890553889299999</v>
+        <v>0.2173589615626667</v>
       </c>
       <c r="R4">
-        <v>2.60149850037</v>
+        <v>1.956230654064</v>
       </c>
       <c r="S4">
-        <v>0.002344436698747781</v>
+        <v>0.006882979707443678</v>
       </c>
       <c r="T4">
-        <v>0.002344436698747781</v>
+        <v>0.006882979707443679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4593233333333333</v>
+        <v>0.5021840000000001</v>
       </c>
       <c r="H5">
-        <v>1.37797</v>
+        <v>1.506552</v>
       </c>
       <c r="I5">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="J5">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N5">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O5">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P5">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q5">
-        <v>0.6610651842911111</v>
+        <v>0.19232140648</v>
       </c>
       <c r="R5">
-        <v>5.949586658619999</v>
+        <v>1.73089265832</v>
       </c>
       <c r="S5">
-        <v>0.005361690311512801</v>
+        <v>0.006090130025429014</v>
       </c>
       <c r="T5">
-        <v>0.005361690311512804</v>
+        <v>0.006090130025429013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>35.829457</v>
       </c>
       <c r="I6">
-        <v>0.4040203167903318</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="J6">
-        <v>0.4040203167903319</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N6">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O6">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P6">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q6">
-        <v>19.87807525522901</v>
+        <v>5.036411414763556</v>
       </c>
       <c r="R6">
-        <v>178.902677297061</v>
+        <v>45.327702732872</v>
       </c>
       <c r="S6">
-        <v>0.1612247718381572</v>
+        <v>0.1594851084902743</v>
       </c>
       <c r="T6">
-        <v>0.1612247718381573</v>
+        <v>0.1594851084902743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>35.829457</v>
       </c>
       <c r="I7">
-        <v>0.4040203167903318</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="J7">
-        <v>0.4040203167903319</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.313874</v>
       </c>
       <c r="O7">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P7">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q7">
         <v>5.230599109602001</v>
@@ -883,10 +883,10 @@
         <v>47.075391986418</v>
       </c>
       <c r="S7">
-        <v>0.04242373253922645</v>
+        <v>0.1656343371827519</v>
       </c>
       <c r="T7">
-        <v>0.04242373253922645</v>
+        <v>0.1656343371827519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>35.829457</v>
       </c>
       <c r="I8">
-        <v>0.4040203167903318</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="J8">
-        <v>0.4040203167903319</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N8">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O8">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P8">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q8">
-        <v>7.515909365433001</v>
+        <v>5.169322776030445</v>
       </c>
       <c r="R8">
-        <v>67.643184288897</v>
+        <v>46.523904984274</v>
       </c>
       <c r="S8">
-        <v>0.06095916013193726</v>
+        <v>0.1636939351975411</v>
       </c>
       <c r="T8">
-        <v>0.06095916013193727</v>
+        <v>0.1636939351975411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>35.829457</v>
       </c>
       <c r="I9">
-        <v>0.4040203167903318</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="J9">
-        <v>0.4040203167903319</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N9">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O9">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P9">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q9">
-        <v>17.18876796646911</v>
+        <v>4.573869049096667</v>
       </c>
       <c r="R9">
-        <v>154.698911698222</v>
+        <v>41.16482144187</v>
       </c>
       <c r="S9">
-        <v>0.1394126522810109</v>
+        <v>0.1448380486505064</v>
       </c>
       <c r="T9">
-        <v>0.1394126522810109</v>
+        <v>0.1448380486505064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.313537</v>
+        <v>5.487855333333333</v>
       </c>
       <c r="H10">
-        <v>12.940611</v>
+        <v>16.463566</v>
       </c>
       <c r="I10">
-        <v>0.1459209877414679</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="J10">
-        <v>0.145920987741468</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N10">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O10">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P10">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q10">
-        <v>7.179412160967001</v>
+        <v>2.314221276926222</v>
       </c>
       <c r="R10">
-        <v>64.61470944870301</v>
+        <v>20.827991492336</v>
       </c>
       <c r="S10">
-        <v>0.05822993789499369</v>
+        <v>0.07328309802871955</v>
       </c>
       <c r="T10">
-        <v>0.05822993789499372</v>
+        <v>0.07328309802871955</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.313537</v>
+        <v>5.487855333333333</v>
       </c>
       <c r="H11">
-        <v>12.940611</v>
+        <v>16.463566</v>
       </c>
       <c r="I11">
-        <v>0.1459209877414679</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="J11">
-        <v>0.145920987741468</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.313874</v>
       </c>
       <c r="O11">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P11">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q11">
-        <v>1.889148037446</v>
+        <v>2.403450146076</v>
       </c>
       <c r="R11">
-        <v>17.002332337014</v>
+        <v>21.631051314684</v>
       </c>
       <c r="S11">
-        <v>0.01532228132729368</v>
+        <v>0.07610865668643792</v>
       </c>
       <c r="T11">
-        <v>0.01532228132729368</v>
+        <v>0.07610865668643792</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.313537</v>
+        <v>5.487855333333333</v>
       </c>
       <c r="H12">
-        <v>12.940611</v>
+        <v>16.463566</v>
       </c>
       <c r="I12">
-        <v>0.1459209877414679</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="J12">
-        <v>0.145920987741468</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N12">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O12">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P12">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q12">
-        <v>2.714539028859</v>
+        <v>2.375293789645777</v>
       </c>
       <c r="R12">
-        <v>24.430851259731</v>
+        <v>21.377644106812</v>
       </c>
       <c r="S12">
-        <v>0.02201676620871225</v>
+        <v>0.0752170457376577</v>
       </c>
       <c r="T12">
-        <v>0.02201676620871226</v>
+        <v>0.07521704573765771</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.313537</v>
+        <v>5.487855333333333</v>
       </c>
       <c r="H13">
-        <v>12.940611</v>
+        <v>16.463566</v>
       </c>
       <c r="I13">
-        <v>0.1459209877414679</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="J13">
-        <v>0.145920987741468</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N13">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O13">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P13">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q13">
-        <v>6.208108591300666</v>
+        <v>2.101683957006666</v>
       </c>
       <c r="R13">
-        <v>55.872977321706</v>
+        <v>18.91515561306</v>
       </c>
       <c r="S13">
-        <v>0.0503520023104683</v>
+        <v>0.06655280244042837</v>
       </c>
       <c r="T13">
-        <v>0.05035200231046831</v>
+        <v>0.06655280244042837</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.844759</v>
+        <v>0.9149506666666666</v>
       </c>
       <c r="H14">
-        <v>38.534277</v>
+        <v>2.744852</v>
       </c>
       <c r="I14">
-        <v>0.4345204227020911</v>
+        <v>0.04854328084357454</v>
       </c>
       <c r="J14">
-        <v>0.4345204227020912</v>
+        <v>0.04854328084357455</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N14">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O14">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P14">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q14">
-        <v>21.378701276769</v>
+        <v>0.385833476199111</v>
       </c>
       <c r="R14">
-        <v>192.408311490921</v>
+        <v>3.472501285791999</v>
       </c>
       <c r="S14">
-        <v>0.1733958741622389</v>
+        <v>0.01221796409054556</v>
       </c>
       <c r="T14">
-        <v>0.1733958741622389</v>
+        <v>0.01221796409054557</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.844759</v>
+        <v>0.9149506666666666</v>
       </c>
       <c r="H15">
-        <v>38.534277</v>
+        <v>2.744852</v>
       </c>
       <c r="I15">
-        <v>0.4345204227020911</v>
+        <v>0.04854328084357454</v>
       </c>
       <c r="J15">
-        <v>0.4345204227020912</v>
+        <v>0.04854328084357455</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.313874</v>
       </c>
       <c r="O15">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P15">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q15">
-        <v>5.625464962122001</v>
+        <v>0.400709964072</v>
       </c>
       <c r="R15">
-        <v>50.629184659098</v>
+        <v>3.606389676648</v>
       </c>
       <c r="S15">
-        <v>0.04562636439174798</v>
+        <v>0.01268904917215884</v>
       </c>
       <c r="T15">
-        <v>0.04562636439174798</v>
+        <v>0.01268904917215884</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.844759</v>
+        <v>0.9149506666666666</v>
       </c>
       <c r="H16">
-        <v>38.534277</v>
+        <v>2.744852</v>
       </c>
       <c r="I16">
-        <v>0.4345204227020911</v>
+        <v>0.04854328084357454</v>
       </c>
       <c r="J16">
-        <v>0.4345204227020912</v>
+        <v>0.04854328084357455</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N16">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O16">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P16">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q16">
-        <v>8.083296752013</v>
+        <v>0.3960156571848888</v>
       </c>
       <c r="R16">
-        <v>72.749670768117</v>
+        <v>3.564140914664</v>
       </c>
       <c r="S16">
-        <v>0.06556105949949023</v>
+        <v>0.01254039728860085</v>
       </c>
       <c r="T16">
-        <v>0.06556105949949023</v>
+        <v>0.01254039728860086</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.844759</v>
+        <v>0.9149506666666666</v>
       </c>
       <c r="H17">
-        <v>38.534277</v>
+        <v>2.744852</v>
       </c>
       <c r="I17">
-        <v>0.4345204227020911</v>
+        <v>0.04854328084357454</v>
       </c>
       <c r="J17">
-        <v>0.4345204227020912</v>
+        <v>0.04854328084357455</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N17">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O17">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P17">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q17">
-        <v>18.48637410577134</v>
+        <v>0.3503986568133333</v>
       </c>
       <c r="R17">
-        <v>166.377366951942</v>
+        <v>3.153587911319999</v>
       </c>
       <c r="S17">
-        <v>0.149937124648614</v>
+        <v>0.01109587029226928</v>
       </c>
       <c r="T17">
-        <v>0.149937124648614</v>
+        <v>0.01109587029226929</v>
       </c>
     </row>
   </sheetData>
